--- a/excel/newAttractions.xlsx
+++ b/excel/newAttractions.xlsx
@@ -14,333 +14,519 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="122">
-  <si>
-    <t>joyful-world-mural-park</t>
-  </si>
-  <si>
-    <t>riptide</t>
-  </si>
-  <si>
-    <t>american-red-cross</t>
-  </si>
-  <si>
-    <t>cattle-barn-1920</t>
-  </si>
-  <si>
-    <t>more-new-food-babas</t>
-  </si>
-  <si>
-    <t>destination-healthy-skin</t>
-  </si>
-  <si>
-    <t>catch-co-bassmobile</t>
-  </si>
-  <si>
-    <t>fraser-sensory-building</t>
-  </si>
-  <si>
-    <t>north-american-six-horse-hitch</t>
-  </si>
-  <si>
-    <t>covid-19-vaccine-clinic</t>
-  </si>
-  <si>
-    <t>crop-art-to-go</t>
-  </si>
-  <si>
-    <t>new-locations-llama</t>
-  </si>
-  <si>
-    <t>updates</t>
-  </si>
-  <si>
-    <t>decor-artcave</t>
-  </si>
-  <si>
-    <t>hobbies-forest-to-fork</t>
-  </si>
-  <si>
-    <t>unique-gifts-steller</t>
-  </si>
-  <si>
-    <t>threads-accessories-nobler</t>
-  </si>
-  <si>
-    <t>out-and-about-shakopee</t>
-  </si>
-  <si>
-    <t>home-solutions-hamernicks</t>
-  </si>
-  <si>
-    <t>Joyful World Mural Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riptide </t>
-  </si>
-  <si>
-    <t>American Red Cross Blood Drive</t>
-  </si>
-  <si>
-    <t>Celebrating 100 Years of the Cattle Barn</t>
-  </si>
-  <si>
-    <t>More New Food Vendors</t>
-  </si>
-  <si>
-    <t>Destination Healthy Skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catch Co.’s Bassmobile </t>
-  </si>
-  <si>
-    <t>Fraser Sensory Building</t>
-  </si>
-  <si>
-    <t>Draft Horse Classic Cart Series Central Regional Finals</t>
-  </si>
-  <si>
-    <t>Covid Community Vaccination Clinic at the Fair</t>
-  </si>
-  <si>
-    <t>Crop Art To Go Competition</t>
-  </si>
-  <si>
-    <t>New Locations</t>
-  </si>
-  <si>
-    <t>Updates to Know Before You Go</t>
-  </si>
-  <si>
-    <t>Handcrafted Home &amp; Garden Décor - 9 New Vendors</t>
-  </si>
-  <si>
-    <t>Hobbies &amp; Foodie Fun - 9 New Vendors</t>
-  </si>
-  <si>
-    <t>Unique Gifts - 13 New Vendors</t>
-  </si>
-  <si>
-    <t>Threads &amp; Accessories - 11 New Vendors</t>
-  </si>
-  <si>
-    <t>Out &amp; About and in the Community - 11 New Vendors</t>
-  </si>
-  <si>
-    <t>Home Solutions - 8 New Vendors</t>
-  </si>
-  <si>
-    <t>Imagination and joy come to life as local artists paint 12 large-scale artworks that reflect the world they want to live in. Throughout the fair’s 12 days, artists will be on-site creating their murals. Joyful World Mural Park is produced in partnership with Forecast Public Art and the Minnesota State Fair Foundation._x000B_</t>
-  </si>
-  <si>
-    <t>This spectacular roller coaster, reaching 55’ high, has all the ups and downs and twists and turns for that end-of-summer adrenaline rush you missed last year._x000B_</t>
-  </si>
-  <si>
-    <t>Give donating a spin! The American Red Cross brings an expanded pop-up donation site to the North End Event Center at a time when the nation's blood supply could use a big boost. Advance appointments are strongly encouraged._x000B_</t>
-  </si>
-  <si>
-    <t>One of the most iconic buildings on the State Fairgrounds, the Cattle Barn, was completed in 1921. Stop by to view an educational timeline outlining the classic building’s many milestones over the past century, plus a photo opportunity to commemorate 100 years.</t>
-  </si>
-  <si>
-    <t>Welcome! Five booths – Auntie M's Gluten Free, Baba’s, Libby's Ice Cream &amp; Co., Solem Concessions Cheese Curds and Mini Donuts, and Spinning Wylde – will make their debut at the 2021 Minnesota State Fair! They join the four new food vendors announced in mid-July._x000B_</t>
-  </si>
-  <si>
-    <t>Ten minutes is all it takes to achieve one of the keys to healthy skin – early detection. The Skin Cancer Foundation’s mobile skin cancer education and screening program offers free full-body skin exams by licensed dermatologists. Screenings are done on a first-come basis and subject to physician availability. No appointment necessary. (Aug. 28 only)</t>
-  </si>
-  <si>
-    <t>Get reeled in to fishing! This outfitted RV features family-friendly games and activities – and giveaways – to share the joy of fishing and inspire beginning anglers. Plus explore Catch Co.’s innovative fishing gear products. (Sept. 5 &amp; 6 only)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This new take-a-break oasis is specially created for fair guests of all ages with sensory-processing challenges who may find the sights, sounds, smells and crowds of the fair overwhelming. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of the most prestigious draft horse events in the United States and Canada holds its North American Classic Cart Series Central Regional Finals exhibition at the Minnesota State Fair. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free, safe and effective covid vaccinations are coming to the Minnesota State Fair! No identification or insurance necessary. </t>
-  </si>
-  <si>
-    <t>In 2020, fair fans made the most of a year without a get-together and purchased the first-ever Crop Art To Go kits to try their hand at a State Fair tradition unlike any other. How did they fare? We have a new competition category open to those who made creations using the patterns and materials included in the at-home kits! _x000B_</t>
-  </si>
-  <si>
-    <t>Since our last get-together, a handful of exhibitions and attractions have found new homes, including the wildly popular 4-H Llama-Alpaca Costume Competition, the thrill rides of Adventure Park, and the always interesting FFA agriculture technology competition entries.</t>
-  </si>
-  <si>
-    <t>If you have questions about this year’s plans or are curious about what’s new and what’s changed since the last time we got-together, use the Updates page on our website to learn more about the 2021 State Fair and how to make the most of your visit. Please check back often – we’ll update this page frequently throughout the summer.</t>
-  </si>
-  <si>
-    <t>The Minnesota State Fair offers a shopping experience like no other! These vendors join nearly 900 merchants spread throughout the fairgrounds.</t>
-  </si>
-  <si>
-    <t>Whether your passion is cooking, fishing, arcade gaming, grilling or walking the dog – and everything in between – these new vendors, plus dozens and dozens of others, are must-sees as you explore the fairgrounds._x000B_</t>
-  </si>
-  <si>
-    <t>An amazing array of unique, hard-to-find gifts – for friends, family and yourself – await at these new vendors, plus hundreds more, in an unparalleled shopping experience to enjoy as you meander through the State Fairgrounds._x000B_</t>
-  </si>
-  <si>
-    <t>This is your chance to get an up-close, in-person look at apparel and accessories to outfit anyone of any age with any fashion style – the choices are limitless at the fair. Welcome to these new vendors in 2021!_x000B_</t>
-  </si>
-  <si>
-    <t>Our state is home to amazing nonprofits, associations and communities. Stop by these booths – and dozens more – to learn about opportunities to engage with good work and experience some of the most vibrant aspects of living and working in Minnesota._x000B_</t>
-  </si>
-  <si>
-    <t>Whether you’re a DIYer or looking to hire experts, the State Fair is the ultimate home shopping network of vendors to reach all corners of your living space. Here are this year’s new additions to the home improvement mix._x000B_</t>
-  </si>
-  <si>
-    <t>Stop by to watch the work in progress by these participating artists: Leslie Barlow, Jennifer Davis, Jose Dominguez, Hibaaq Ibrahim, Tom Jay, Maiya Lea, Geno Okok, Shade Pratt, Xee Reiter, Joy Spika, Kao Lee Thao and Thomasina Topbear</t>
-  </si>
-  <si>
-    <t>New at Mighty Midway</t>
-  </si>
-  <si>
-    <t>Transforming the North End Event Center into a large blood donation site, the American Red Cross will have more donation beds, more staff and more space to create an enjoyable, comfortable donation experience at the fair. The center will also include Power Red machines, so eligible donors can give nearly twice the amount of red cells to help more patients. In addition, eligible donors can choose to receive free sickle cell trait screening. Plus, of course there will be donor giveaways and the opportunity to learn more about the work of the Red Cross. The summer’s severe blood shortage and ongoing disaster responses mean the need for blood donations is great – learn more and make an appointment at the link below. Please note that the last appointment is one hour prior to closing. (Face coverings are required in the North End Event Center for the blood drive.)_x000B_</t>
-  </si>
-  <si>
-    <t>The Cattle Barn, originally known as the Livestock Pavilion, is a massive brick structure covering 117,450 square feet with sufficient housing for 1,000 head of cattle. It was designed by famed and prolific architect Clarence H. Johnston. Among his extensive list of work is the design of Williams Arena and Northrop Auditorium at the University of Minnesota, the Glensheen Mansion in Duluth, and dozens of stately homes in St. Paul, especially on Summit Avenue._x000B_</t>
-  </si>
-  <si>
-    <t>Inside this specially equipped RV, guests can ask questions and get skin cancer early detection and prevention information. After completing a brief form, visitors enter a private room, change into a gown, and a licensed dermatologist will exam their skin from head to toe. The doctor will note any findings on the form and make recommendations for next steps, which may include a formal visit to a dermatologist. The exam takes approximately 10 minutes. It’s best to arrive early, as screenings are provided on a first-come basis and subject to physician availability. (Please note that masks will be required aboard the RV and will be provided for visitors if they do not have one. The RV is equipped with a HEPA air filtration system, and hand sanitizer will be available.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With a mission to rescue people from the indoors by creating amazing products, content and shopping experiences for the modern angler, Catch Co. started as a Facebook group to share tips and fishing tales. The company now has more than 2 million followers across its social media channels, including its popular YouTube channel. In addition to fun, engaging activities, the Bassmobile will also showcase a pop-up shop of its innovative Mystery Tackle Box subscription service and fishing gear available at MysteryTackleBox.com and shopkarls.com. </t>
-  </si>
-  <si>
-    <t>The Fraser take-a-break sensory space in the Fraser Sensory Building offers a calming atmosphere, support staff and private side entrance. Fraser-trained sensory support volunteers will help fair guests calm their sensory systems with tools and techniques, so they can rejoin the fun. _x000B__x000B_Front-of-building activities include games, giveaways, special guests, employment information and educational resources. Fraser, a nonprofit that has served Minnesotans for more than 85 years, is the premier provider and expert on services that intersect the needs of autism, mental health and diverse intellectual, emotional and physical needs.</t>
-  </si>
-  <si>
-    <t>The Minnesota State Fair Horse Show is proud to host this event featuring an invited list of top  finalists in the Central Region, encompassing 12 states and central Canada. The North American Classic Cart Series features a driver in a gleaming cart putting a one-ton draft horse through its paces, with the pair moving as a single unit. Competitors will vie for a share of $5,000 in prize money. The Classic Cart Series is a program of the North American Six-Horse Hitch Classic Series. This event is free with fair admission.</t>
-  </si>
-  <si>
-    <t>The Minnesota Department of Health, Ramsey County and Homeland Health are offering all eligible fair guests the chance to roll up their sleeves and get their covid vaccine. Minnesotans can walk into the community vaccination clinic at the North End Event Center to receive a Pfizer-BioNTech or J&amp;J/Janssen vaccine (based on availability), and after a short waiting period, return to the fun of the Great Minnesota Get-Together. (Face coverings are required in the North End Event Center for the Community Vaccine Clinic.) Appointments and walk-ins are welcome. Please note that the last appointment is approximately one hour prior to closing. Click the link below to schedule your appointment.</t>
-  </si>
-  <si>
-    <t>Unique to the Minnesota State Fair, crop art is made from Minnesota-grown seeds, stems and other plant parts, and the talent, humor and creativity of Minnesotans is on full display in the Agriculture Horticulture Building. This year, the exhibition also will feature novice and experience categories for those who used the materials of the Crop Art To Go kits. Don’t miss this popular and iconic competition!</t>
-  </si>
-  <si>
-    <t>Auntie M's Gluten Free: Featuring gluten-free corndogs, funnel cakes and cheese curds. Funnel cakes are available in strawberries and cream and apple pie flavors or with powdered sugar, cinnamon or chocolate topping choices (Located on the south side of Judson Avenue between Nelson &amp; Underwood streets, at Adventure Park)_x000B_Baba's: Featuring a variety of hummus bowls, including Hummus bi lahme (minced beef shawarma, lemon sauce, parsley, pine nuts, sumac); Chili Baba (garlic chili oil, kimchi, scallions, za’atar); Falafelicious (falafel, fried eggplant, warm chickpeas, pickled cabbage, Arabic pickles, tahini, sumac); Dilly Dilly (dill pickle hummus, dill pickles, cheese curds, crispy onions; Truffle (truffle hummus, roasted wild mushrooms, pine nuts); Baba Gone Wild (create your own); and more. Served with warm or fried pita (Located on the east side of Underwood Street between Lee &amp; Randall avenues, just south of Little Farm Hands)_x000B_Libby's Ice Cream &amp; Co.: Featuring soft serve ice cream in a variety of flavors served in cones and cups and as shakes, sundaes and floats. Plus, banana split on-a-stick, frozen banana on-a-stick and cheesecake on-a-stick - all dipped in chocolate (Located east of Chambers Street, just south of the Grandstand)_x000B_Solem Concessions Cheese Curds and Mini Donuts: Featuring brand-new blueberry mini donuts, plus classic cheese curds in Cajun (new to the fair!), ranch, garlic and original flavors (Located on the east side of Underwood Street between Murphy &amp; Lee avenues)_x000B_Spinning Wylde: Featuring more than 30 dye-free and natural flavors of handspun cotton candy clouds made with organic cane sugar. Also offering fresh-pressed watermelon juice garnished with a watermelon gummy skewer and an edible straw (Located on the east side of Underwood Street between Lee &amp; Randall avenues, just south of Little Farm Hands)</t>
-  </si>
-  <si>
-    <t>4-H Llama-Alpaca Costume Competition gets new digs in the Lee &amp; Rose Warner Coliseum: In this kitschy contest unique to Minnesota, catch 4-H’ers and their llamas &amp; alpacas in complementary costumes. For a better fan experience, the contest moves to the Warner Coliseum and will be held Wednesday, Sept. 1, at 6 p.m. Following the costume contest, the fun continues with 4-H’ers and their llamas &amp; alpacas competing in novelty games._x000B_Adventure Park moves southeast to south of Judson Avenue between the CHS Miracle of Birth Center and the Dairy Building: The aerial view will be a little different for those who dare to try the fair’s biggest thrill attractions, including Skyscraper and Sling Shot, plus the Turbo Bungy and Rock Climbing Wall. _x000B_FFA Agriculture Technology Exhibits are now showcased in the Agriculture Horticulture Building: Formerly housed in the Education Building, this group of competitions features the work of talented FFA youth who are exhibiting restored tractors; large construction agricultural and home equipment such as wood chairs and work benches; introductory projects such as bird houses, planters, sheet metal projects, tool boxes, laser-designed projects and furniture; and educational materials and displays relating to the themes of leadership; power, structures &amp; electricity systems; natural resource &amp; environmental systems; and animal &amp; plant systems._x000B_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Art Cave Company: Artistically restored exact replicas of official patent art images on file with the U.S. Patent and Trademark Office_x000B_Bailey Builds: Wood mosaic wall artwork made in Duluth with new and reclaimed wood_x000B_D-Lighted Designs: Custom-engraved acrylic designs with LED light stands and frames_x000B_Paul’s Porch Pots: Maple syrup buckets repurposed as porch pots, plus other décor_x000B_Perfect Pleasures: Handmade copper and brass garden items_x000B_Reflections By Megan: Original black and white acrylic paintings by artist Megan Johnson printed on cards, paper, canvases, T-shirts, stickers and totes_x000B_Ricki and Sons: Custom and Minnesota-themed metal home décor, wall art, outdoor metal art, fire pit surrounds and lake signs_x000B_Urban Fly Gallery: Artwork by local artists, including original designs_x000B_Wettrock Co.: Handcrafted artisanal furnishings pairing foundry hand-poured cast iron with natural wood </t>
-  </si>
-  <si>
-    <t>Gentleman Forager: Specializing in wild-sourced or wildly unique products such as Lions Mane Mushroom-Infused Nut Butter and Wild Black Walnut Roll Premium Candy Bars. Other items include fresh wild mushrooms, urban farm-raised cricket snacks, grow-at-home mushroom kits, mushroom soap, foraging tools and more_x000B_Gift Solutions: Imported olive oils, Italian vinegars and Turkish lights_x000B_Götze: Professional-grade Swiss kitchen scissors and peelers_x000B_Here’s the Deal Spice Co.: Unique spice blends, including 127 Blend, BBQ Rib Rub, Wing Blend, Togarashi and Bloody Mary Rim_x000B_Kracken Adventure Bikes: Folding electric bikes designed for those who like to travel_x000B_Line Cutterz: As seen on Shark Tank – patented Line Cutterz ring and zipper pulls to cut fishing line. Plus lanyards, kayak nets, bug repellent, micro scissors, logoed hats and shirts, and more_x000B_Own Your Own Arcade Game: Brand-new classic arcade games_x000B_Stunt Puppy: Locally made gear for active dogs and their owners_x000B_Traeger Wood-Fired Grills: Wood pellet grills, wood pellets, grill accessories, sauces and rubs_x000B_</t>
-  </si>
-  <si>
-    <t>Alpaca Connection: Fur line of toys, pillows, rugs, keychains, hats, scarves and slippers_x000B_Carden Farms: Handmade wood and metal folk art designs featuring the Log Hog. Plus soaps, beard and shaving kits and more_x000B_Fantastic World of Art by Russian Souvenirs: Music boxes, ornaments, nesting dolls, figurines, Fabergé eggs, lacquer boxes, hand-painted jewelry and decorative trays _x000B_Faribault Woolen Mill: Ultra-fine wool blankets, throws, scarves, totes, coffee sleeves, wine bags and more_x000B_Green Bubble Gorgeous: Handcrafted soaps, body butters, sugar scrubs, lip balms, lotions, bath bombs, soaps and more_x000B_Native Spirit: Native crafts; dream catchers; leather, beaded, silver and bamboo jewelry; apparel; backpacks and handbags_x000B_Pink Zebra: Sprinkle fragrances, simmering lights, oil fragrances, hand sanitizer, car fresheners and more_x000B_Rock HQ: Officially licensed band and music apparel, wallets, bags, jewelry and more_x000B_Steller Handcrafted Goods: Nordic creations made from repurposed wool sweaters – mittens, purses, catnip mice and more. Plus a variety of Scandinavian gift items_x000B_StrauBerry Park: Children’s books and plush toys by local author/illustrator Christopher Straub. Plus enamel pins, stickers, shirts and more_x000B_Unicorn Farms Inc.: Pop-up photo studio featuring a magical unicorn_x000B_Worker B: Beehive-derived skincare products, beeswax candles, raw and local honey, herbal tea, custom aromatherapy blends and other pollinator-friendly items_x000B_Your Ears Rock: Raising awareness of noise-induced hearing loss and tinnitus through the Loudest Drive Competition, which measures the impulse level of a driver hitting a golf ball, plus sales of NHL and NCAA officially licensed hearing protection</t>
-  </si>
-  <si>
-    <t>Batakali Fashion Design: African clothing, hats and jewelry_x000B_Crystal Vision: Sunglasses for men, women and children_x000B_Hippy Feet: American-made eco-friendly socks and apparel by a Minneapolis corporation with a mission to support homeless youth _x000B_Just For Littles: Children's clothing, including dresses, socks, leggings and shorts_x000B_Korie’s Kloset: Boutique children’s clothes, backpacks, headbands, sun hats and birthday crowns_x000B_Midsommar Clothing Company: Nordic-inspired flag-forward T-shirts, sweatshirts, caps and more_x000B_Minnesota Explorer: Branded flannel wear, loungewear, athletic apparel, socks, backpacks, tote bags, blankets and more_x000B_Nobler Wild: Handcrafted, vintage-inspired children’s clothing designs by Tiffany Felty, children’s shoes and accessories and face coverings_x000B_Southern Glam Boutique: Women’s jeans, shirts, scarves, dresses, boots and shoes_x000B_Switch Hoods: Women’s denim jackets, cargo jackets and vests – all with interchangeable hoods_x000B_Three Wandering Gypsys: Variety of women’s footwear brands _x000B_</t>
-  </si>
-  <si>
-    <t>Action 4 Liberty: Sign up to support the Action 4 Liberty mission and spin to win giveaways_x000B_Disabled American Veterans of Minnesota: Support and information about available services for veterans _x000B_Minnesota Propane Association: Promoting propane safety and Minnesota propane companies_x000B_Minnesota Society of Professional Surveyors: Educational materials promoting the land surveyor profession_x000B_Minnesota Women’s Soccer: Brand-new expansion franchise of the pre-professional United Soccer League W League, set to begin play in May 2022_x000B_NorthBridge Corp.: Three companies – Rumi, a roommate matching platform connecting individuals with disabilities to caregiver-roommates; Bridges, which empowers individuals with disabilities to achieve goals and live their most independent lives; and Northstar Behavioral Health, specializing in stimulant and opioid addiction recovery_x000B_Northern Minnesota Arrowhead Region: Showcasing the many beautiful sights and things to do in Minnesota’s Iron Range area_x000B_Prime Digital Academy: Information about the academic offerings of this full-time immersion tech learning program_x000B_Shakopee Mdewakanton Sioux Community (SMSC): Interactive walk-thru display with information about the history, culture, language and values of the SMSC and Minnesota’s 10 other tribal nations. The first tribal government to have an exhibit booth at the State Fair, the SMSC also presents information on the Understand Native Minnesota campaign to improve education about and representation of Native Americans in Minnesota school curriculum._x000B_United States Postal Service: Employee recruiting and information on current job openings_x000B_Visit Bemidji: Visitor guides and tourism information on arts &amp; entertainment, outdoor experiences, shopping, dining and more</t>
-  </si>
-  <si>
-    <t>Clauson’s: All-natural, non-toxic, biodegradable Clauson’s Green polish and multi-surface cleaner_x000B_Dirttrapper Mat: Doormat fibers keep dirt, mud, leaves, grass and water off floors and carpet, with anti-skid backing_x000B_Eurosteam Iron: Ultimate steam iron in compact designs with a powerful built-in boiler system_x000B_Hamernick’s Interior Solutions: Twin Cities’ premier source for residential and commercial flooring_x000B_Latitude Studios Co.: Repurposing shipping containers into unique and functional spaces_x000B_Nordness: Patented NORL™ drill bit holder_x000B_Shelf Genie Twin Cities: Design and implementation of custom home access solutions for cabinets and pantries_x000B_WaterFurnace International: Geothermal and water source heat pumps_x000B_</t>
-  </si>
-  <si>
-    <t>Select artists on-site daily, 11 a.m. to 3 p.m. (weather permitting). Please note that the artists will be working on their artwork on a rotating basis, and not all artists will be on-site every day. Murals and information about the artists will be on display all 12 days of the fair._x000B_</t>
-  </si>
-  <si>
-    <t>Please note that riders must be 48” tall.</t>
-  </si>
-  <si>
-    <t>Daily, 9 a.m. to 9 p.m. (8 p.m. on Labor Day); last appointment is approximately one hour prior to closing_x000B_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday, Aug. 28, 9 a.m. to 9 p.m. </t>
-  </si>
-  <si>
-    <t>Sunday, Sept. 5, 9 a.m. to 9 p.m.; Monday, Sept. 6, 9 a.m. to 8 p.m.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="184">
+  <si>
+    <t>sweetie-selfie-experience</t>
+  </si>
+  <si>
+    <t>sensory-friendly-morning</t>
+  </si>
+  <si>
+    <t>can-can-wonderland-mini-golf</t>
+  </si>
+  <si>
+    <t>pan-latino-day</t>
+  </si>
+  <si>
+    <t>universally-designed-changing-restroom</t>
+  </si>
+  <si>
+    <t>50th-annual-amateur-talent-contest</t>
+  </si>
+  <si>
+    <t>naturalization-ceremonies-oaths-of-allegiance</t>
+  </si>
+  <si>
+    <t>future-projections-canopy-calliope</t>
+  </si>
+  <si>
+    <t>oink-booth-new-look</t>
+  </si>
+  <si>
+    <t>madagascar-musical-adventure</t>
+  </si>
+  <si>
+    <t>two-new-kidway-rides</t>
+  </si>
+  <si>
+    <t>gate-9-como-avenue</t>
+  </si>
+  <si>
+    <t>new-competition-themes</t>
+  </si>
+  <si>
+    <t>new-competitions</t>
+  </si>
+  <si>
+    <t>history-walking-tour</t>
+  </si>
+  <si>
+    <t>little-farm-hands-20-years</t>
+  </si>
+  <si>
+    <t>mighty-midway-and-kidway-fun-card</t>
+  </si>
+  <si>
+    <t>fair-food-news</t>
+  </si>
+  <si>
+    <t>paintcare</t>
+  </si>
+  <si>
+    <t>sponsors-for-a-day</t>
+  </si>
+  <si>
+    <t>in-the-community-new-vendors</t>
+  </si>
+  <si>
+    <t>unique-gifts-new-vendors</t>
+  </si>
+  <si>
+    <t>threads-accessories-new-vendors</t>
+  </si>
+  <si>
+    <t>foodie-fun-new-vendors</t>
+  </si>
+  <si>
+    <t>handcrafted-home-garden-decor-new-vendors</t>
+  </si>
+  <si>
+    <t>sporting-goods-pet-products-new-vendors</t>
+  </si>
+  <si>
+    <t>home-solutions-new-vendors</t>
+  </si>
+  <si>
+    <t>Sweet &amp; Selfie Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensory-Friendly Morning at Mighty Midway &amp; Kidway </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can Can Wonderland Mini Golf On-A-Stick </t>
+  </si>
+  <si>
+    <t>Pan-Latino Day at Dan Patch Park</t>
+  </si>
+  <si>
+    <t>Universally Designed Changing Restroom with Hoist by Momentum Refresh</t>
+  </si>
+  <si>
+    <t>50th Annual Amateur Talent Contest</t>
+  </si>
+  <si>
+    <t>Naturalization Ceremonies &amp; Oaths of Allegiance</t>
+  </si>
+  <si>
+    <t>Future Projections’ Canopy/Calliope</t>
+  </si>
+  <si>
+    <t>Oink Booth – A New Look</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theater Day at Dan Patch Park: Madagascar – A Musical Adventure JR. </t>
+  </si>
+  <si>
+    <t>Two New Kidway Rides</t>
+  </si>
+  <si>
+    <t>Gate 9 on Como Avenue – Redeveloped</t>
+  </si>
+  <si>
+    <t>New Competition Themes</t>
+  </si>
+  <si>
+    <t>New Livestock and Agriculture Competitions</t>
+  </si>
+  <si>
+    <t>History Walking Tour: 5 New Stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Farm Hands Celebrates 20 Years </t>
+  </si>
+  <si>
+    <t>Mighty Midway &amp; Kidway Fun Card</t>
+  </si>
+  <si>
+    <t>Fair Food News</t>
+  </si>
+  <si>
+    <t>PaintCare Promotional Exhibit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sponsors for a Day: Mall of America (Aug. 24), Now Hiring (Aug. 29) and Nonprofit Showcase (Aug. 30) </t>
+  </si>
+  <si>
+    <t>In the Community – 12 New Vendors</t>
+  </si>
+  <si>
+    <t>Unique Gifts &amp; Specialty Items – 10 New Vendors_x000B_</t>
+  </si>
+  <si>
+    <t>Threads &amp; Accessories – 6 New Vendors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foodie Fun – 7 New Vendors </t>
+  </si>
+  <si>
+    <t>Handcrafted Home &amp; Garden Décor – 5 New Vendors</t>
+  </si>
+  <si>
+    <t>Sporting Goods &amp; Pet Products – 2 New Vendors</t>
+  </si>
+  <si>
+    <t>Home Solutions – 4 New Vendors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embark on a journey through a fantastical world, where larger-than-life sweets create Instagram-worthy moments and intriguing displays elevate your candy knowledge. Strike a pose by whimsical giant donuts, cookies, a Jelly Belly mosaic and a candy mountain, immersing yourself in the ultimate sugar-filled adventure. A fun, fanciful experience for all ages! </t>
+  </si>
+  <si>
+    <t>For fair guests who would like to experience the fun of rides &amp; games at Mighty Midway &amp; Kidway with reduced light brightness and sound volume, on Monday, Aug. 28, at Kidway from 9 to 11 a.m. and at Mighty Midway from 10 a.m. to noon, lights, sounds and non-safety-related announcements will be minimized.</t>
+  </si>
+  <si>
+    <t>No ifs, ands or putts, this mini golf adventure is the place to par-tee! Can Can Wonderland brings you a clever nine-hole course made up entirely of famous State Fair landmarks – the Space Tower, Haunted House, DNR Park, Giant Slide and Ferris wheel, plus there’s a Hole-stein, fun fair food structures and more!</t>
+  </si>
+  <si>
+    <t>La Raza 95.7 FM and 1400/1470 AM, Minnesota’s top Latino radio stations, host a festival of the diversity represented under the colorful panorama of Latin American cultures in Minnesota! Musicians, dancers and local artists, as well as organizations and community leaders, will be featured throughout the day.</t>
+  </si>
+  <si>
+    <t>Momentum Refresh is the nation’s first fully accessible, universally designed, mobile restroom equipped with a full-size adjustable changing table, a ceiling hoist (sling not provided) and other amenities.</t>
+  </si>
+  <si>
+    <t>More than 17,000 singers, dancers, jugglers, acrobats, instrumentalists and others have auditioned over the past five decades for this popular showcase of Minnesota’s most talented. Catch this year’s semifinals Aug. 24-Sept. 2 at the Leinie Lodge Bandshell and the finals Sept. 3 at the Grandstand – a free event!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the spirit of the Great Minnesota Get-Together, more than 50 citizenship candidates from more than a dozen countries will take the Oath of Allegiance – the final step in the naturalization process – and officially become citizens of the United States. U.S. Citizenship and Immigration Services and the U.S. District Court for the District of Minnesota will lead these special naturalization ceremonies at the State Fair. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sounds of an olde-tyme calliope bounce to carnival rhythms while showers of fish, flowers and fantastical creatures light up the ground below and the leafy canopy above. This new imaginative and immersive public art installation is presented by Future Projections. </t>
+  </si>
+  <si>
+    <t>The iconic Oink Booth has a new look, thanks to our partners at Minnesota Pork! Designed to reflect a real modern-day pig barn, the newly constructed Oink Booth has expanded with more educational games and interactive activities about pigs in Minnesota. Oink Booth favorites – including the famous pig ear headbands, the sow and piglets exhibit and the ever-popular largest boar – will continue to be a part of the exhibit. Find the Oink Booth in a new location in the Robert A. Christensen Pavilion.</t>
+  </si>
+  <si>
+    <t>Everyone’s favorite zoo crew sets out on a wild adventure in this upbeat musical based on the DreamWorks hit movie “Madagascar.” ETC Productions brings together performers and technicians ages 15-19 to present a one-hour show that will give you no choice but to “Move it, move it!”_x000B_</t>
+  </si>
+  <si>
+    <t>Coming this year to Kidway – Beach Shack and Pump &amp; Jump – two fun-filled rides just for little fair fans!</t>
+  </si>
+  <si>
+    <t>Fair guests who enter the Great Minnesota Get-Together on the south side will experience a new welcoming Gate 9 area – wider, more accessible entrance and exit gates; expanded bike lot; added sidewalks; spacious wheelchair, scooter and stroller rental area; iconic OnlyInMN photo op; and benches and art sculptures.</t>
+  </si>
+  <si>
+    <t>While competitions have been a part of the State Fair since the beginning, each year new themes capture the creativity, humor and talent of Minnesotans in a variety of categories from quilts on-a-stick and decorated cakes to flower shows and landscape design.</t>
+  </si>
+  <si>
+    <t>This year, we’re introducing even more opportunities for FFA youth and livestock exhibitors. Don’t miss competitions featuring ag mechanics, vegetables, potatoes, poultry, rabbits and sheep.</t>
+  </si>
+  <si>
+    <t>The History Walking Tour, a two-mile, 12-stop self-guided exploration of some of the State Fair’s most historically significant spots, introduces five new additions to the tour: Bandshell, Farm Boys’ Camp, Fairborne, Judging Arena (Compeer), and the Parade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little fair fans become farmhands and experience the agricultural process through activities especially for ages 3-10. The journey starts with putting on an apron to fire up the imagination and ends with using “earnings” from working on the farm to purchase an item at the grocery store. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New this year! When you purchase Mighty Midway &amp; Kidway ride &amp; game tickets, they’ll be loaded onto a Fun Card rather than given as paper tickets. Every time you ride a ride or play a game, you’ll scan your card and the appropriate number of tickets will be deducted from the card. If you’d like to add tickets to the card, stop by a ticket booth or self-serve kiosk at Mighty Midway or Kidway. </t>
+  </si>
+  <si>
+    <t>New food booth construction, a returning vendor and more fun fair food news!</t>
+  </si>
+  <si>
+    <t>From buying and storing paint to using it efficiently, giving away unused paint and recycling the rest, PaintCare showcases need-to-know info. Stop by to play a fun game, meet costumed characters and more!</t>
+  </si>
+  <si>
+    <t>Make your way to the corner of Wright Avenue and Underwood Street for activities and information presented by companies and organizations with local connections.</t>
+  </si>
+  <si>
+    <t>Our state is home to amazing nonprofits and educational organizations. Stop by these booths – and dozens more at the fair – to learn more about their work.</t>
+  </si>
+  <si>
+    <t>Discover an amazing array of unique, hard-to-find gifts – for family, friends (and even yourself!) – at these new vendors, plus hundreds more throughout the fairgrounds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is your chance to get an up-close, in-person look at apparel and accessories to outfit anyone of any age with any fashion style – the choices are limitless at the fair! </t>
+  </si>
+  <si>
+    <t>Fair and food go hand in hand, and these new vendors will help you take your at-home foodie game to the next level. They join hundreds of other can’t-miss shops to visit as you explore the fairgrounds.</t>
+  </si>
+  <si>
+    <t>The Minnesota State Fair offers a shopping experience like no other! These vendors join nearly 900 merchants at the Great Minnesota Get-Together!</t>
+  </si>
+  <si>
+    <t>These new vendors, plus dozens and dozens of others at the fair, will get you ready for maximum fun whatever the adventure!</t>
+  </si>
+  <si>
+    <t>Whether you’re a DIYer or looking to hire experts, the State Fair is the ultimate home shopping network of vendors. Welcome to this year’s new additions to the home improvement mix!</t>
+  </si>
+  <si>
+    <t>What's the best-selling Halloween candy? How many dried cocoa beans does it take to make one pound of chocolate? Peppermint is a hybrid of what two mints? Plus, learn about oddities and rarities, real-life Willy Wonkas, what inspired the creation of gummy bears, candy pioneers such as chewing gum industrialist William Wrigley Jr., candy in pop culture, the science of cooking candy, and so much more! Free with fair admission.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensory-Friendly Morning at Mighty Midway &amp; Kidway is offered to better accommodate those with sensory sensitivities. For more resources and information about attending the State Fair with sensory-processing challenges, please visit our Accessibility Guide website page at the link below.  </t>
+  </si>
+  <si>
+    <t>After its popular debut at the fair’s Kickoff to Summer event in May, Can Can Wonderland Mini Golf On-A-Stick comes to the State Fair! Fun for the whole family!</t>
+  </si>
+  <si>
+    <t>Come and enjoy Latin dance classes, performances by the Mexica Danzantes Kalpulli Yaocenoxtli, Dos Coronas, Mariachi Son de Morelos, La Comparsa de Chinelos de San Pablo Apóstol, Rumba Nueva, and more! Plus, join us for arts activities and interactive experiences with Muralismos de Mexico, Alebrijes de Minneapolis, and the participation of many of the key organizations working in the Latino community in Minnesota. Free with fair admission.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By offering a safe and comfortable personal care space for those with mobility limitations and their caregivers, Momentum Refresh reduces barriers and promotes inclusivity, equity and understanding. In addition to a toilet, this groundbreaking vehicle is equipped with a height-adjustable universal changing table, an overhead ceiling hoist (sling not provided) to facilitate easier transfer from wheelchair to changing table or toilet, a height-adjustable sink, enough room for an individual and caregiver, and a team of trained professionals available to inform guests about the amenities and to maintain and clean the space. </t>
+  </si>
+  <si>
+    <t>From auditions held in July, semifinalists in preteen, teen and open divisions move on to compete at 6 p.m. at the Leinie Lodge Bandshell for a chance to perform on the big stage – literally – in the Minnesota State Fair Amateur Talent Contest Finals at the Grandstand on Sept. 3, at 7:30 p.m. Come cheer on the performers competing for a share of more than $20,000 in cash prizes.</t>
+  </si>
+  <si>
+    <t>A fantasia of imagery and sound, Canopy/Calliope is designed to delight and enchant the senses through “light painting” and photo collages. Future Projections is a live animation and projection art company founded by Minneapolis visual and performing artist Paul Herwig. Free with fair admission. _x000B_</t>
+  </si>
+  <si>
+    <t>Free with fair admission.</t>
+  </si>
+  <si>
+    <t>Unlikely friends Marty the Zebra, Alex the Lion, Gloria the Hippo and Melman the Giraffe chase their dream to experience life beyond the zoo. This lively musical for all ages is presented by ETC Productions in partnership with Apple Valley High School and features a performance company led by young people ages 15-19 from throughout the Twin Cities. Their stop at the fair is part of a 44-performance summer tour. Free with fair admission.</t>
+  </si>
+  <si>
+    <t>Stops along the Kemp Little Farm Hands path include a variety of simulated experiences, including: riding pint-size tractors, picking apples, gathering eggs, milking a cow and planting seeds. Try a variety of hands-on educational activities for all ages. Plus, meander through a Field of Knowledge to observe bees at work and get an up-close look at wheat, a variety of corn and flowers, and learn about soil and pollinators. Big farmhands older than age 10 can try the Ag-Vestigator quiz challenge to earn a ribbon. Now in its 20th year, Little Farm Hands welcomes more than 150,000 guests each year. Free with fair admission._x000B_</t>
+  </si>
+  <si>
+    <t>Did you know there are 267 year-round sites in Minnesota that collect paint to recycle? Since 2014, PaintCare has collected 8.3 million gallons in our state alone. PaintCare Inc., a nonprofit 501(c)(3) organization, represents paint manufacturers to plan and operate paint stewardship programs in U.S. states and jurisdictions that pass paint stewardship laws.</t>
+  </si>
+  <si>
+    <t>Welcome to these booths:</t>
+  </si>
+  <si>
+    <t>Please note: The sensory-friendly hours apply only to Mighty Midway &amp; Kidway; there may be areas in other parts of the fairgrounds that contain loud music and lights during these hours. Also, in the Mighty Midway &amp; Kidway, some lights and sound may still occur, as not all attractions can completely eliminate all sound and light._x000B_</t>
+  </si>
+  <si>
+    <t>Cost: $10 per person; children 3 and under are free with a paid adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note regarding slings: Slings for the ceiling hoist are specific to the individual and are therefore not provided. Please make sure to bring your own sling. (Any sling with a loop attachment is compatible with the lift in the vehicle.) See the Accessibility Guide link below for more information. </t>
+  </si>
+  <si>
+    <t>Fun Fact: Past winners include Nashville-based country music singer-songwriter Caitlyn Smith, Minneapolis’ first family of soul The Steeles, local theater actor Max Wojtanowicz, beat box artist DJ Snuggles, and pianist Aurora Wang. _x000B_Fun Fact: Of the 17,000 who have auditioned over the past 50 years, 5,500 have qualified for fair-time semifinal competition. More than $250,000 in prize money has been awarded to top finishers._x000B_Fun Fact: Did we mention that the Minnesota State Fair Amateur Talent Contest Finals at the Grandstand is FREE to attend, no ticket required?! A total of 26 acts in preteen, teen and open divisions take the stage on Sunday, Sept. 3.</t>
+  </si>
+  <si>
+    <t>Beach Shack: When a big storm hits the beach, you’ll spin, dip and tilt – just like this adventurous ride in a bright beach shack! Minimum height requirement is 36” to ride with an adult and 42” to ride alone._x000B_Pump &amp; Jump: Little tykes get a big adrenaline rush as they climb and drop and climb and drop! Minimum height requirement is 42” to ride, between 42” and 46” to ride with an adult, and 46” to ride alone._x000B_</t>
+  </si>
+  <si>
+    <t>The popular free bike lot formerly located at Snelling and Como avenues will move west to the Gate 9 area and become larger to accommodate more bikes._x000B_The State Fairgrounds Ticket Office will continue to sell tickets at this gate area._x000B_Gate 9 will continue to be the south drop-off and pick-up stop for Metro Mobility, taxis and the free Oscar Johnson Arena Park &amp; Ride lot exclusively for those with valid disability parking certificates or license plates and their companions._x000B_The plaza area just inside Gate 9 will be the future home of a unique and stunning public art installation to recognize donors and greet fair guests. Stay tuned for details in the coming months. Support provided by the Minnesota State Fair Foundation.</t>
+  </si>
+  <si>
+    <t>Quilt On-A-Stick – “The Fair at First Light”: Quilters’ imaginations are captured on an 8” x 9” piece with a paint-stirring stick inserted.*_x000B_Cake Decorating – “Roadside Attractions”: Let a favorite road trip be the inspiration and include a photo with the entry.*_x000B_Decorated Cookies – “Shoes”: How will bakers interpret this theme on cookies no bigger than 4” in diameter?*_x000B_Decorated Cupcakes – “Pets”: Paying homage to our best friends couldn’t be sweeter than on a cupcake!*_x000B_Minnesota State Fair Flower Show – “Minnesota Loves Summer”: Our love affair with the seasons will be in full bloom Aug. 28 and 29.+_x000B_Minnesota State Florists Association’s Floralpalooza – “Happily Ever After”: Floral designers and retail florists bring their “once upon a time” visions to life in the center rotunda of the Ag-Hort Building in a floral extravaganza that never ceases to “wow!”+_x000B_FFA Landscape Design and Construction – “Landscape for Color”: Students from Minnesota FFA chapters construct up to 10 sites, each 14’ x 14’, using colorful plant materials and are judged on design, construction, correctly labeled plants, accessories/lighting and more.^</t>
+  </si>
+  <si>
+    <t>FFA Agricultural Mechanics Competitions: In the Small Engines Build Off timed contest, students in grades 10-12 must disassemble and reassemble a small engine (Friday, Sept. 1, 5 p.m.). The Wood Construction Build Off features two-person teams who build a wood bench in two hours and are judged on technique, craftsmanship, joints, fasteners and more (Saturday, Sept. 2 in two-hour slots). In the Weld Off, individuals are given 90 minutes to complete a metal campfire grate and are judged on technique, craftsmanship, welds, how closely the components match the plan, and more (Sunday, Sept. 3 in 90-minute slots). All three competitions take place live in the Agriculture Horticulture Building._x000B_FFA Vegetable &amp; Potato: Open to FFA students in grades 7-12, new competition categories include beans, beets, eggplant, gourds, muskmelon, winter squash, tomatoes, miniature pumpkins, cabbage, kohlrabi, kale, turnips, horseradish, and white, russet and red potatoes, just to name a few. Entries will be displayed in the Agriculture Horticulture Building on Saturday &amp; Sunday, Sept. 2 &amp; 3._x000B_FFA Poultry: Chickens, ducks, geese, turkeys and other poultry breeds will be judged Saturday, Sept. 2, at 3 p.m., in the Poultry Barn. _x000B_FFA Rabbits: Dozens of small and large rabbit breeds will be judged Sunday, Sept. 3, at 9 a.m., in the Poultry Barn_x000B_Open Class Sheep – All Other Hair Breeds: This exhibition features purebred pedigreed animals – such as the Dorper, White Dorper and Katahdin breeds – that do not qualify under other breed classifications. Judging takes place on Friday, Aug. 25, at 3 p.m., in the Sheep Barn.</t>
+  </si>
+  <si>
+    <t>Bandshell: Small stages inside buildings were the norm before the 1960s. In 1971 the Bandshell was constructed – the largest of the State Fair stages offering free entertainment. In 2023, among dozens of shows on the Bandshell stage, catch the 50th Annual Amateur Talent Contest semifinals._x000B_Farm Boys’ Camp: In 1912, farm boys submitted an essay to earn a trip to the State Fair. Girls were included in 1916. Renamed Youth Camp in 1975, it continued through 1993 and was turned into a scholarship program in 1994. This year, 22 scholarships of $1,000 will be awarded to youth from greater Minnesota or those enrolled in an agriculture program._x000B_Fairborne: Happy 40th birthday, Fairborne! In 1983, Fairborne became the State Fair’s second gopher mascot, joining Fairchild, the official mascot since 1966. _x000B_Judging Arena: Added to the livestock area in 1964, this 15,000-square-foot structure was replaced in 2012 with a larger arena now known as Compeer Arena._x000B_Parade: Part of the State Fair since the beginning, parades historically were most often held at the Grandstand racetrack and featured industrial fair vendors or prize-winning livestock.</t>
+  </si>
+  <si>
+    <t>Fun Cards with advance discount ride &amp; game tickets are on sale now online through Etix and at Cub stores and other official ticket outlets. _x000B_Fun Cards purchased in advance of the fair come pre-loaded with 25 tickets for $20! _x000B_For customer service assistance with your Fun Card, make sure to register it online. _x000B_During the fair, Fun Cards with regular-price tickets can be purchased at ticket booths and self-serve kiosks. _x000B_Ride &amp; game tickets purchased this year will not be valid after the 2023 State Fair.</t>
+  </si>
+  <si>
+    <t>The Perfect Pickle: Fans of The Perfect Pickle, located on Liggett Street on the west end of the fairgrounds, will now be able to get their pickle fix at a brand-new northerly second location – on the west side of Underwood Street across from Lee Avenue. The Perfect Pickle’s menu at both locations includes deep-fried pickles, pickles on-a-stick and soda._x000B_SPAM: If you’ve been longing for all things SPAM, you’re in luck! SPAM returns after a short absence. This famed booth will be located under the Grandstand Ramp and will serve SPAM Burgers, SPAM Curds, SPAM Breakfast Sandwich, 15 flavors of canned SPAM, soda and bottled water._x000B_Bandstand Concessions: Grandstand concertgoers can treat themselves to a wide variety of brews, beverages, sandwiches, hot and cold snacks, and other amenities and fan experience opportunities at brand-new Grandstand concessionaire Bandstand Concessions. Order food and sips at five new structures on the plaza level and buy packaged food and drinks on the second floor of the Grandstand, and beer on the third floor. (Separate concert ticket required, except on Sept. 3, when admission to the Amateur Talent Contest Finals is free)_x000B_Use the Finder: The Fair Finder, an online, searchable tool that is also available in our app, will have all the details on vendors who have new locations, new menu offerings, Official New Foods, new Specialty Sips and more. Check the link below in August.</t>
+  </si>
+  <si>
+    <t>Mall of America (Aug. 24): Stop by for fun activities and prize giveaways!_x000B_Metro-wide 911 Centers (Aug. 29): Explore the exciting, busy and fulfilling field of being a 911 telecommunicator. 911 professionals answer questions about what happens when you call 911 and the technology used to send help._x000B_Northstar Bus Lines (Aug. 29): Help transport students to school safely. Offering training, flexible scheduling, competitive pay and a sign-on bonus. Also hiring van drivers, paras and mechanics._x000B_ShiftMed (Aug. 29): Our app connects CNAs, RNs, LPNs and other health care professionals with shifts at top-rated healthcare facilities in your area to give you flexibility and control of your schedule. _x000B_Transportation Security Administration (Aug. 29): TSA is hiring full-time and part-time transportation security officers at MSP Airport and airports throughout the state. Learn about job opportunities and building a career with TSA._x000B_AuSM (Aug. 30): The Autism Society of Minnesota (AuSM) enhances the lives of individuals and families affected by autism with a fundamental commitment to advocacy, education, support, collaboration and community building._x000B_Can Do Canines (Aug. 30): Can Do Canines is dedicated to enhancing the quality of life for people with disabilities by creating mutually beneficial partnerships with specially trained dogs. Enter to win a play session with puppies!_x000B_Minnesota Alliance With Youth (Aug. 30): The Alliance works in partnership with youth, through initiatives including Minnesota Youth Council and AmeriCorps, to ensure that all young people have equitable educational opportunities that foster their individual assets, honor their voices and prepare them to reach their goals.  _x000B_People for PSEO (Aug. 30): Through policymaking, outreach and resources, this youth-led nonprofit   promotes, defends and expands opportunities for high school students through the PSEO program._x000B_Save the Boundary Waters (Aug. 30): This ever-growing community works in a non-partisan way to advocate for the protection of wilderness and wild places, especially the Boundary Waters Canoe Area Wilderness and the greater Quetico-Superior Ecosystem.</t>
+  </si>
+  <si>
+    <t>Air Force Recruiting: Educational information about serving in the Air Force_x000B_Animal Humane Society: Promoting children's camps, behavior and training classes for pet owners, discounted vet services for those that qualify, surrendering and rehoming pets, adoption services, Whisker Whirl event_x000B_Bethany Global University: Information regarding bachelor's and master's degrees offered_x000B_Cultural Destinations: Education on local cultural destinations – such as cultural malls, ethnic restaurants and diverse artists as reflected in flavors, fashions and gifts of the world_x000B_Medtronic: Information on career opportunities at Medtronic_x000B_Minnesota Center for Prion Research and Outreach: Education and outreach regarding chronic wasting disease research (diagnostic, therapeutic and remediation) in Minnesota _x000B_Minnesota Department of Public Safety Bureau of Criminal Apprehension: Information on criminal history, gun locks, online safety, forensics and criminal record expungement _x000B_Minnesota Genealogical Society: Information regarding the society and help with family history research_x000B_Octapharma Plasma Inc.: Information regarding plasma donation_x000B_Sendoff-Funerals Reimagined: Funeral services information_x000B_Visiting Angels: Information on senior home care and Parkinson's in-home care_x000B_WDGY Radio: Celebrating 100 years with broadcasts, merchandise sales and giveaways</t>
+  </si>
+  <si>
+    <t>Bobby &amp; Steve's Auto World: Variety of convenience store items_x000B_The Funky Zebra Boutique: Chalk couture inks, surfaces and tools; chalk transfers; chalkology pastes; finished chalk boards, home décor and apparel_x000B_Held Companies: Wood-turned creatures and snowmen and laser-cut 3D ornaments_x000B_Lip Esteem: Plant-based, gluten-free lip glosses and lip sticks, lip balm, lip exfoliator, lip treatment; plus backpacks, candles, earrings,  hats, T-shirts_x000B_Origami by Kannika: Origami bookmarks, hair accessories, jewelry, mobiles, ornaments, paper art, paper cards_x000B_Resurrected Journals: Journals, coasters, earrings and bookmarks made from old, discarded books; plus totebags_x000B_Rugged History Beard Co.: Balms, butters, conditioners, oils and washes for beards; cologne to match the oils; men's body wash and soaps; shave soap_x000B_Rust and Rose Boutique: Children's and women’s clothing, repurposed hand-painted jean jackets, coasters, dips, dough bowl candles, soap, Rust and Rose prepackaged food_x000B_Someplace Special: Doug &amp; Melissa educational toys, personalized busy boxes, rain ponchos, umbrellas_x000B_Stuff-n-Luv: Make-your-own-stuffed-animal kits, plus clothing, shoes and hats for your animal</t>
+  </si>
+  <si>
+    <t>Always Northern Permanent Jewelry: Permanent jewelry, pre-made jewelry, earrings, hair accessories, handmade signs, keychains _x000B_Earth Clay: National park necklaces, classic sculpture necklaces, earrings, T-shirts, hats,  original clayscape artwork and more_x000B_Fan Girl MN: Minnesota sports-themed apparel for women, including shirts, sweatshirts and hats_x000B_Leon Leather Co.: Buckles, cowboy boots, cowboy hats, hats, belts, wallets, socks, sunglasses, T-shirts_x000B_Pria Handmade Accessories: Hand-beaded bags and bracelets, hand-embroidered headbands, handmade earrings, hand-woven fashion hats and handbags_x000B_The Vermont Flannel Company: Blankets, boxer shorts, hoodies, jackets, pants, scarves, shirts, shorts</t>
+  </si>
+  <si>
+    <t>Black Tie Caramel: Caramel candies, crunch, sauces_x000B_Classic City Candy Company: Freeze-dried candy, including Skittles, M&amp;M's, Airheads, Nerd Clusters, Snickers, Rolo, Jolly Rancher, Starburst, taffy, peach rings, marshmallows_x000B_Hepp's Salt Co.: Gourmet flavored sea salts and infused cane sugar_x000B_K-Mama Sauce: Korean hot sauces, kimchi jars, packaged ramen bowls, and logo aprons, hats, hoodies, T-shirts_x000B_Nikkolette's Macarons: 100% gluten-free French macarons_x000B_Riffs Smokehouse: Bacon on the Go in five flavors (Sweet, Sweet and Spicy, Raspberry Chipotle, Red Curry, Habanero Heat) and BBQ sauces (Sweet Child O' Mine and Voodoo Child)_x000B_Whiskey in a Week: Whiskey in a Week handcrafted kits</t>
+  </si>
+  <si>
+    <t>Jordan's Jungle: More than 100 varieties of Tillandsia (air plants), plant-based coconut/apricot wax candles in 100 scents, potted tropical and houseplants_x000B_LoneTree Designs: Metal garden and yard art, home décor_x000B_Naomi Events: Custom-made framed art in sports and pop culture genres_x000B_Roots, Shoots &amp; Leaves: Live tropical houseplants, succulents and cacti, plus accessories for house plant hobbyists_x000B_Swinford Designs: Wooden picture frames with vintage antique images</t>
+  </si>
+  <si>
+    <t>Bullseye Bow: Targets, Velcro balls, Velcro vests, youth bow &amp; arrow set_x000B_Rufflect Dog Bandanas: Reflective dog bandanas</t>
+  </si>
+  <si>
+    <t>Leaf Home Water Solutions: Customized water softener and water filtration solutions_x000B_Mickman Brothers: Full-service landscape design and installation company _x000B_Pump and Meter: ABB Level 2 Level 3 EV Chargers; Blink Level 2 &amp; Level 3 EV Chargers; Kempower Level 3 EV Chargers; SemaConnect Amps2Go Charging Station; SemaConnect Amps2Go Level 2 EV Chargers; SemaConnect Home Charger; Tritium Fast Charger; Tritium Level 3 EV Chargers; Webasto Level 2 EV Chargers_x000B_Tuff Shed: Garages, sheds, storage buildings</t>
+  </si>
+  <si>
+    <t>Daily, 9 a.m. to 9 p.m. (8 p.m. Labor Day)</t>
+  </si>
+  <si>
+    <t>Monday, Aug. 28: 9-11 a.m. at Kidway; 10 a.m. to noon at Mighty Midway</t>
+  </si>
+  <si>
+    <t>Daily, 9 a.m. to 10 p.m. (8 p.m. Labor Day, ticket sales close at 7:30 p.m.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturday, Sept. 2, 9 a.m. to 4 p.m. </t>
   </si>
   <si>
     <t>Daily, 9 a.m. to 9 p.m. (8 p.m. on Labor Day)</t>
   </si>
   <si>
-    <t>The North American Classic Cart Series Central Regional Finals will be held Thursday, Aug. 26, at 3 p.m., in the Lee &amp; Rose Warner Coliseum.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily, 9 a.m. to 9 p.m. (8 p.m. on Labor Day); Last appointment is approximately one hour prior to closing. </t>
-  </si>
-  <si>
-    <t>For more information and a complete list of vendors at the 2021 State Fair, use the Fair Finder online.</t>
-  </si>
-  <si>
-    <t>For more information and a complete list of vendors at the 2021 State Fair, use the Fair Finder online._x000B_</t>
-  </si>
-  <si>
-    <t>For more information and a complete list of vendors at the 2021 State Fair, use the Fair Finder online._x000B__x000B_</t>
-  </si>
-  <si>
-    <t>[{'url': 'https://www.mnstatefair.org/location/mighty-midway/', 'title': 'Mighty Midway'}]</t>
-  </si>
-  <si>
-    <t>[{'url': 'https://www.redcross.org/local/mn-nd-sd/about-us/news-and-events/events/donate-blood-at-the-state-fair.html', 'title': 'American Red Cross at the Minnesota State Fair'}]</t>
-  </si>
-  <si>
-    <t>[{'url': 'https://www.mnstatefair.org/animals/cattle/', 'title': 'More info about Cattle Barn activities, breeds and hours'}]</t>
-  </si>
-  <si>
-    <t>[{'url': 'https://www.mnstatefair.org/new-this-year/food/', 'title': 'Official New Foods at the 2021 Minnesota State Fair'}]</t>
-  </si>
-  <si>
-    <t>[{'url': 'https://www.skincancer.org/early-detection/destination-healthy-skin/', 'title': 'The Skin Cancer Foundation’s Destination Healthy Skin'}]</t>
-  </si>
-  <si>
-    <t>[{'url': 'https://www.mnstatefair.org/animals/horses/', 'title': 'More info about horse show activities, breeds and Horse Barn hours'}]</t>
-  </si>
-  <si>
-    <t>[{'url': 'https://my.primary.health/r/statefair?registration_type=default', 'title': 'Click this link to schedule your vaccine appointment.'}]</t>
-  </si>
-  <si>
-    <t>[{'url': 'https://www.mnstatefair.org/competitions/ag-hort-bee/crop-art-and-scarecrow/', 'title': 'How to enter the crop art competition'}, {'url': 'https://www.mnstatefair.org/location/agriculture-horticulture-building/', 'title': 'About the Agriculture Horticulture Building'}]</t>
-  </si>
-  <si>
-    <t>[{'url': 'https://www.mnstatefair.org/schedule/4-h-llama-and-alpaca-costume-competition/', 'title': '4-H Llama-Alpaca Costume Competition'}, {'url': 'https://www.mnstatefair.org/location/adventure-park/', 'title': 'Adventure Park'}, {'url': 'https://www.mnstatefair.org/location/agriculture-horticulture-building/', 'title': 'Agriculture Horticulture Building'}, {'url': 'https://www.mnstatefair.org/general-info/maps/', 'title': 'Fairgrounds map'}]</t>
-  </si>
-  <si>
-    <t>[{'url': 'https://www.mnstatefair.org/updates/', 'title': 'Updates to Know Before You Go'}]</t>
-  </si>
-  <si>
-    <t>[{'url': 'https://www.mnstatefair.org/fair-finder/shops/', 'title': 'Fair Finder – check back for updates'}, {'url': 'https://www.mnstatefair.org/general-info/shopping-destinations/', 'title': 'Shopping Destinations'}]</t>
-  </si>
-  <si>
-    <t>[{'url': 'https://www.mnstatefair.org/fair-finder/shops/', 'title': 'Fair Finder - check back for updates'}, {'url': 'https://www.mnstatefair.org/general-info/shopping-destinations/', 'title': 'Shopping Destinations'}]</t>
-  </si>
-  <si>
-    <t>Located west of Chambers Street between West Dan Patch and Carnes avenues</t>
-  </si>
-  <si>
-    <t>Located at Mighty Midway</t>
-  </si>
-  <si>
-    <t>Located in the North End Event Center, north of Murphy Avenue</t>
-  </si>
-  <si>
-    <t>The Cattle Barn is located south of Judson Avenue, between Stevens and Liggett streets</t>
-  </si>
-  <si>
-    <t>Located on Underwood Street, north of Murphy Avenue east of the Pet Pavilions</t>
-  </si>
-  <si>
-    <t>Located on the south side of Wright Avenue between Underwood and Cooper streets</t>
-  </si>
-  <si>
-    <t>Located on the west side of Cosgrove Street, south of the Home Improvement Building</t>
-  </si>
-  <si>
-    <t>Located in the Lee &amp; Rose Warner Coliseum, south of Judson Avenue between Liggett and Clough streets</t>
-  </si>
-  <si>
-    <t>Located in the Agriculture Horticulture Building, on the west side of Cooper Street north of Judson Avenue</t>
+    <t>Amateur Talent Contest Semifinals are Aug. 24-Sept. 2, at 6 p.m., at the Leinie Lodge Bandshell. The Finals are Sept. 3, at 7:30 p.m., at the Grandstand (a free event!)_x000B_</t>
+  </si>
+  <si>
+    <t>Monday &amp; Wednesday, Aug. 28 &amp; 30, 9 a.m.</t>
+  </si>
+  <si>
+    <t>Monday, Tuesday &amp; Wednesday, Aug. 28, 29 &amp; 30, at dusk or approximately 9 p.m. for 1 hour (weather permitting)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Oink Booth is open when the Christensen Pavilion is open. Check hours link for details. </t>
+  </si>
+  <si>
+    <t>Performances are Wednesday, Aug. 30, at 10 a.m. and 1 p.m. (1 hour); 1 p.m. performance is audio-described</t>
+  </si>
+  <si>
+    <t>Daily, 9 a.m. to 10 p.m. (8 p.m. Labor Day). Daily closing times for Kidway may vary. Ticket sales close 1/2 hour before rides and games close.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entries in these categories will be on display in the *Creative Activities Building, the +Agriculture-Horticulture Building or outside the ^CHS Miracle of Birth Center. Hours vary. </t>
+  </si>
+  <si>
+    <t>Dates and times vary for specific competitions and exhibitions.</t>
+  </si>
+  <si>
+    <t>Pick up a tour brochure at any tour stop on the fairgrounds, outside the J.V. Bailey House or at the History &amp; Heritage Center. Visit at least eight of the 12 stops and collect a prize! Free with fair admission. (See brochure for details.)</t>
+  </si>
+  <si>
+    <t>Daily, 8 a.m. to 7 p.m.</t>
+  </si>
+  <si>
+    <t>Kidway is open daily, 9 a.m. to 10 p.m. (8 p.m. Labor Day). Mighty Midway is open daily, 10 a.m. to 11 p.m. (9 p.m. Labor Day). Daily closing times for Mighty Midway and Kidway may vary. Ticket sales close 1/2 hour before rides and games close.</t>
+  </si>
+  <si>
+    <t>Friday, Aug. 25 only, 9 a.m. to 9 p.m.</t>
+  </si>
+  <si>
+    <t>Tuesday, Aug. 29 (Now Hiring) and Wednesday, Aug. 30 (Nonprofit Showcase), 9 a.m. to 9 p.m.</t>
+  </si>
+  <si>
+    <t>Daily, 9 a.m. to 9 p.m. (8 p.m. Labor Day); hours may vary by location</t>
+  </si>
+  <si>
+    <t>[{'url': 'https://www.mnstatefair.org/location/north-end-event-center/', 'title': 'North End Event Center'}]</t>
+  </si>
+  <si>
+    <t>[{'url': 'https://www.mnstatefair.org/general-info/accessibility-guide/#sensory', 'title': 'Accessibility Guide – Sensory-Friendly Visits'}]</t>
+  </si>
+  <si>
+    <t>[{'url': 'https://www.mnstatefair.org/location/dan-patch-park-stage/', 'title': 'Dan Patch Park &amp; Stage'}]</t>
+  </si>
+  <si>
+    <t>[{'url': 'https://www.mnstatefair.org/general-info/accessibility-guide/', 'title': 'Accessibility Guide'}, {'url': 'https://momentumrefresh.org/', 'title': 'Momentum Refresh'}]</t>
+  </si>
+  <si>
+    <t>[{'url': 'https://www.mnstatefair.org/competitions/amateur-talent-contests/', 'title': 'Minnesota State Fair Amateur Talent Contest'}, {'url': 'https://www.mnstatefair.org/grandstand/amateur-talent-contest-finals/', 'title': 'Amateur Talent Contest Finals at the Grandstand'}]</t>
+  </si>
+  <si>
+    <t>[{'url': 'https://www.mnstatefair.org/location/international-bazaar-stage/', 'title': 'International Bazaar Stage'}]</t>
+  </si>
+  <si>
+    <t>[{'url': 'https://www.mnstatefair.org/location/oink-booth/', 'title': 'Oink Booth'}, {'url': 'https://www.mnstatefair.org/animals/swine/', 'title': 'Christensen Pavilion Hours'}]</t>
+  </si>
+  <si>
+    <t>[{'url': 'https://www.mnstatefair.org/location/dan-patch-park-stage/', 'title': 'Dan Patch Park &amp; Stage'}, {'url': 'https://www.mnstatefair.org/general-info/accessibility-guide/#audio', 'title': 'Accessibility Guide – Audio Description Services'}]</t>
+  </si>
+  <si>
+    <t>[{'url': 'https://www.mnstatefair.org/location/kidway/', 'title': 'Kidway'}]</t>
+  </si>
+  <si>
+    <t>[{'url': 'https://www.mnstatefair.org/general-info/maps/', 'title': 'State Fairgrounds Map'}, {'url': 'https://www.mnstatefair.org/general-info/hours-of-operation/', 'title': 'Fairgrounds Admission Hours'}]</t>
+  </si>
+  <si>
+    <t>[{'url': 'https://www.mnstatefair.org/competitions/creative-activities/', 'title': 'Creative Activities Competition'}, {'url': 'https://www.mnstatefair.org/competitions/ag-hort-bee/flowers/', 'title': 'Ag-Hort-Bee Flower Competitions'}, {'url': 'https://www.mnstatefair.org/general-info/hours-of-operation/', 'title': 'Building Hours'}]</t>
+  </si>
+  <si>
+    <t>[{'url': 'https://www.mnstatefair.org/competitions/ffa/', 'title': 'FFA Competitions'}, {'url': 'https://www.mnstatefair.org/animals/sheep-and-goat/', 'title': 'Sheep at the Fair'}]</t>
+  </si>
+  <si>
+    <t>[{'url': 'https://www.mnstatefair.org/about-the-fair/brochures/', 'title': 'History Walking Tour brochure available in August'}]</t>
+  </si>
+  <si>
+    <t>[{'url': 'https://www.mnstatefair.org/location/little-farm-hands/', 'title': 'Kemps Little Farm Hands'}]</t>
+  </si>
+  <si>
+    <t>[{'url': 'https://www.etix.com/ticket/p/7018583/2023-mighty-midway-kidway-fun-cards-stpaul-minnesota-state-fair-tickets?country=US&amp;partner_id=4584&amp;language=en', 'title': 'Buy Fun Cards'}, {'url': 'https://www.mnstatefair.org/funcard/', 'title': 'Fun Card Information'}]</t>
+  </si>
+  <si>
+    <t>[{'url': 'https://www.mnstatefair.org/fair-finder/food/', 'title': 'Food Finder coming in August'}]</t>
+  </si>
+  <si>
+    <t>[{'url': 'https://www.mnstatefair.org/fair-finder/shops/', 'title': 'Fair Finder – coming soon'}, {'url': 'https://www.mnstatefair.org/general-info/shopping-destinations/', 'title': 'Shopping Destinations'}]</t>
+  </si>
+  <si>
+    <t>Located in the North End Event Center, north of Murphy Avenue between Cooper and Cosgrove streets</t>
+  </si>
+  <si>
+    <t>Located at Mighty Midway &amp; Kidway</t>
+  </si>
+  <si>
+    <t>Located at the North End, north of Murphy Avenue and The Hangar, east of Underwood Street</t>
+  </si>
+  <si>
+    <t>Located at Dan Patch Park, south of the Grandstand and west of the Grandstand Ramp</t>
+  </si>
+  <si>
+    <t>Located on the east side of Cosgrove Street, north of Lee Avenue</t>
+  </si>
+  <si>
+    <t>Located at the Leinie Lodge Bandshell Aug. 24-Sept. 2 (6 p.m.) and at the Grandstand Sept. 3 (7:30 p.m.)</t>
+  </si>
+  <si>
+    <t>Located at the International Bazaar Stage</t>
+  </si>
+  <si>
+    <t>Located just south of the Grandstand, east of the Grandstand Ramp</t>
+  </si>
+  <si>
+    <t>Located at the Robert A. Christensen Pavilion, northeast corner</t>
+  </si>
+  <si>
+    <t>Located at Kidway</t>
+  </si>
+  <si>
+    <t>Located on Como Avenue, just east of the Lee &amp; Rose Warner Coliseum</t>
+  </si>
+  <si>
+    <t>Located in the Agriculture Horticulture Building and the Poultry and Sheep barns.</t>
   </si>
   <si>
     <t>Located throughout the fairgrounds</t>
   </si>
   <si>
-    <t>If you have a summer or holiday edition of the Crop Art To Go kit and would like to enter this competition, the deadline to register is Aug. 13. (We’re sorry, but the kits are now sold out, so we no longer have them available.)_x000B_</t>
+    <t xml:space="preserve">Located south of Lee Avenue on the west side of Cooper Street </t>
+  </si>
+  <si>
+    <t>Located at the southeast corner of Wright Avenue and Underwood Street</t>
+  </si>
+  <si>
+    <t>Sweet &amp; Selfie Experience was created by Stage Nine Design and is distributed by Exhibits Development Group.</t>
+  </si>
+  <si>
+    <t>Support provided by the Minnesota State Fair Foundation.</t>
+  </si>
+  <si>
+    <t>The Minnesota State Fair Amateur Talent Contest is part of the Grandstand Concert Series, sponsored by Sleep Number. Nightly fireworks spectacular sponsored by Mazda. Photos: Amateur Talent Contest parade float, ca. 1990; Danny L. and the Brewerettes (gospel group), 1976.</t>
+  </si>
+  <si>
+    <t>Please note: This public art installation contains flashing lights.</t>
+  </si>
+  <si>
+    <t>Kidway is sponsored by Kwik Trip.</t>
+  </si>
+  <si>
+    <t>Photos: 2022 Decorated Cookies Theme “Quilts”; 2021 Floralpalooza Theme “Homegrown Legends”_x000B_</t>
+  </si>
+  <si>
+    <t>The History Walking Tour is presented by the Minnesota State Fair Foundation and the Minnesota Historical Society. Photos: Bandshell, 1981; Farm Boys’ Camp, 1915</t>
+  </si>
+  <si>
+    <t>Kemps Little Farm Hands is sponsored by Kemps (Title Sponsor and Dairy Barn), Cub (Grocery Store), Cargill (Tractor Shed) and Minnesota Corn (Grain Bin). Additional support from Edling Farms (Potatoes) and Minnesota Apple Growers Association (Apples).</t>
   </si>
   <si>
     <t>id</t>
@@ -427,8 +613,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M20" totalsRowShown="0">
-  <autoFilter ref="A1:M20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M28" totalsRowShown="0">
+  <autoFilter ref="A1:M28"/>
   <tableColumns count="13">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="slug"/>
@@ -733,7 +919,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -741,43 +927,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="H1" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="I1" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="K1" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="L1" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="M1" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -788,19 +974,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
+        <v>131</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>148</v>
+      </c>
+      <c r="L2" t="s">
+        <v>163</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -814,22 +1006,25 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -843,22 +1038,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="K4" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -872,19 +1067,25 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>115</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K5" t="s">
-        <v>101</v>
+        <v>151</v>
+      </c>
+      <c r="L5" t="s">
+        <v>164</v>
       </c>
       <c r="M5">
         <v>4</v>
@@ -898,16 +1099,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>95</v>
+      </c>
+      <c r="H6" t="s">
+        <v>116</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>134</v>
+      </c>
+      <c r="K6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L6" t="s">
+        <v>164</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -921,22 +1134,28 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>153</v>
+      </c>
+      <c r="L7" t="s">
+        <v>165</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -950,19 +1169,19 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>118</v>
+      </c>
+      <c r="I8" t="s">
+        <v>136</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -976,19 +1195,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>155</v>
+      </c>
+      <c r="L9" t="s">
+        <v>166</v>
       </c>
       <c r="M9">
         <v>8</v>
@@ -1002,22 +1224,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="M10">
         <v>9</v>
@@ -1031,22 +1253,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="M11">
         <v>10</v>
@@ -1060,25 +1282,25 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="M12">
         <v>11</v>
@@ -1092,19 +1314,19 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="M13">
         <v>12</v>
@@ -1118,13 +1340,22 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" t="s">
+        <v>123</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>168</v>
       </c>
       <c r="M14">
         <v>13</v>
@@ -1138,22 +1369,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="I15" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="M15">
         <v>14</v>
@@ -1167,22 +1398,25 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="I16" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s">
-        <v>107</v>
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>169</v>
       </c>
       <c r="M16">
         <v>15</v>
@@ -1196,22 +1430,25 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="I17" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>107</v>
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
       </c>
       <c r="M17">
         <v>16</v>
@@ -1225,22 +1462,22 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="I18" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="M18">
         <v>17</v>
@@ -1254,22 +1491,19 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="K19" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="M19">
         <v>18</v>
@@ -1283,25 +1517,254 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="K20" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="M20">
         <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" t="s">
+        <v>129</v>
+      </c>
+      <c r="K21" t="s">
+        <v>162</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K22" t="s">
+        <v>160</v>
+      </c>
+      <c r="M22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" t="s">
+        <v>160</v>
+      </c>
+      <c r="M23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" t="s">
+        <v>147</v>
+      </c>
+      <c r="K24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" t="s">
+        <v>160</v>
+      </c>
+      <c r="M25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" t="s">
+        <v>160</v>
+      </c>
+      <c r="M26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" t="s">
+        <v>160</v>
+      </c>
+      <c r="M27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" t="s">
+        <v>147</v>
+      </c>
+      <c r="K28" t="s">
+        <v>160</v>
+      </c>
+      <c r="M28">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
